--- a/Excel/TraversyMedia.xlsx
+++ b/Excel/TraversyMedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,298 +468,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>w7ejDZ8SWv8</t>
+          <t>5zR1ZE5aqho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>React JS Crash Course</t>
+          <t>Cursor Crash Course &amp; AI Coding For Beginners</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3540449</v>
+        <v>38395</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1:48:48</t>
+          <t>0:52:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sBws8MSXN7A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>React JS Crash Course (2019)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019-01-03</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1684927</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1:38:24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EU7PRmCpx-0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Laravel From Scratch [Part 1] - Series Introduction</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2017-06-03</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1213882</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0:17:16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MYyJ4PuL4pY</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laravel From Scratch | 4+ Hour Course</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2022-04-26</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1121934</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4:18:52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>XuFDcZABiDQ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Build an Expense Tracker | React Hooks &amp; Context API</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2020-02-22</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>964435</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0:49:41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LDB4uaJ87e0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>React Crash Course</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>883946</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3:04:36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A71aqufiNtQ</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>React JS Crash Course</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2016-11-12</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>843462</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1:00:39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>93p3LxR9xfM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Redux Crash Course With React</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2018-03-17</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>822666</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1:09:23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>H3uRXvwXz1o</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Laravel From Scratch [Part 2] - Environment Setup &amp; Laravel Installation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2017-06-03</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>756799</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0:19:45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hf4MJH0jDb4</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>React Native Crash Course</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2020-02-04</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>710093</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0:51:28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
